--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1607,21 +1607,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1661,27 +1661,27 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Then tap Go</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1706,12 +1706,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen</t>
+          <t>Then tap Go</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1727,29 +1727,89 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
+        <v>21</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0-9</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
         <v>22</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Live stream video frame rate less than 9Hz</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0-7</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>22</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>Fly with caution</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>9-11</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1607,21 +1607,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1661,27 +1661,27 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Then tap Go</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1706,12 +1706,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Then tap Go</t>
+          <t>Drag a box around or tap a target on screen</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1727,21 +1727,21 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1750,66 +1750,6 @@
         </is>
       </c>
       <c r="F44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>22</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Live stream video frame rate less than 9Hz</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0-7</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>22</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Fly with caution</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>9-11</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
